--- a/Project Documents/Design Documents/HLD/DB Design/AirlineReservationSystem_GroupDesign.xlsx
+++ b/Project Documents/Design Documents/HLD/DB Design/AirlineReservationSystem_GroupDesign.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Table 1:User</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Number(10,2)</t>
   </si>
   <si>
-    <t>Table 3:FlightInformation</t>
-  </si>
-  <si>
     <t>Booking_id</t>
   </si>
   <si>
@@ -308,6 +305,24 @@
   </si>
   <si>
     <t>Table 4:BookingInformation</t>
+  </si>
+  <si>
+    <t>Table 3:Flight</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Varchar2(30)</t>
+  </si>
+  <si>
+    <t>Represents the duration of flight from source to destination.</t>
+  </si>
+  <si>
+    <t>Travel_date</t>
+  </si>
+  <si>
+    <t>Represents the Travel Date.</t>
   </si>
 </sst>
 </file>
@@ -523,16 +538,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -545,38 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,6 +591,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:K35"/>
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,882 +933,980 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="1" t="s">
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
+      <c r="I38" s="14"/>
+      <c r="J38" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+    </row>
+    <row r="46" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="E47" s="26"/>
+      <c r="F47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="191">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
+  <mergeCells count="201">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="B24:C24"/>
@@ -1808,110 +1931,69 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
